--- a/test_data/additional-rootdataset/ro-crate-metadata-RootDataset_isRef.xlsx
+++ b/test_data/additional-rootdataset/ro-crate-metadata-RootDataset_isRef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/source/github/Language-Research-Technology/ro-crate-excel/test_data/additional-rootdataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA73FCC-E8D3-CF49-A48E-3CFCB85F8988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF2E930-80FB-D340-85DA-284F32AD7A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9340" yWindow="2560" windowWidth="26160" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,9 +253,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>doi</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1000/182</t>
   </si>
   <si>
@@ -281,6 +278,9 @@
   </si>
   <si>
     <t>isTerm_ldac:subjectLanguage</t>
+  </si>
+  <si>
+    <t>isTerm_ldac:doi</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1367,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1386,10 +1386,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
         <v>71</v>
-      </c>
-      <c r="B1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1434,10 +1434,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1490,7 +1490,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>67</v>
@@ -2134,10 +2134,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2188,13 +2188,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3018,7 +3018,7 @@
         <v>52</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>20</v>

--- a/test_data/additional-rootdataset/ro-crate-metadata-RootDataset_isRef.xlsx
+++ b/test_data/additional-rootdataset/ro-crate-metadata-RootDataset_isRef.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/source/github/Language-Research-Technology/ro-crate-excel/test_data/additional-rootdataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF2E930-80FB-D340-85DA-284F32AD7A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1A8B86-D804-BC4C-83EF-9D7BAF09E3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9340" yWindow="2560" windowWidth="26160" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="2560" windowWidth="26160" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RootDataset" sheetId="10" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="79">
   <si>
     <t>@id</t>
   </si>
@@ -277,10 +277,13 @@
     <t>AARNET</t>
   </si>
   <si>
-    <t>isTerm_ldac:subjectLanguage</t>
-  </si>
-  <si>
-    <t>isTerm_ldac:doi</t>
+    <t>ldac:doi</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Spanish</t>
   </si>
 </sst>
 </file>
@@ -1363,11 +1366,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1B4B01-7DA1-4F69-8EF2-3B9D5666F67A}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1434,7 +1437,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>68</v>
@@ -1490,10 +1493,18 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
